--- a/biology/Zoologie/Encyocrypta_cagou/Encyocrypta_cagou.xlsx
+++ b/biology/Zoologie/Encyocrypta_cagou/Encyocrypta_cagou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta cagou est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta cagou est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre dans le parc provincial de la Rivière Bleue[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre dans le parc provincial de la Rivière Bleue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 12 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 12 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au Cagou[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au Cagou.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
